--- a/StructureDefinition-us-core-location-sliced.xlsx
+++ b/StructureDefinition-us-core-location-sliced.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$56</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3437" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="388">
   <si>
     <t>Property</t>
   </si>
@@ -605,7 +605,7 @@
 </t>
   </si>
   <si>
-    <t>Type of function performed</t>
+    <t>&gt;&gt;&gt;&gt; Slicing type by value set &lt;&lt;&lt;&lt;&lt;</t>
   </si>
   <si>
     <t>Indicates the type of function performed at the location.</t>
@@ -627,7 +627,96 @@
     <t>.code</t>
   </si>
   <si>
-    <t>Location.type.id</t>
+    <t>Location.type:ServiceDeliveryLocationRoleType</t>
+  </si>
+  <si>
+    <t>ServiceDeliveryLocationRoleType</t>
+  </si>
+  <si>
+    <t>Extensible binding inherited from FHIR R4 `Location.type`</t>
+  </si>
+  <si>
+    <t>Location.type:HealthcareServiceLocation</t>
+  </si>
+  <si>
+    <t>HealthcareServiceLocation</t>
+  </si>
+  <si>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜 ,  Meets the USCDI applicable vocabulary standard (HSLOC)</t>
+  </si>
+  <si>
+    <t>Meets the USCDI applicable vocabulary standard (HSLOC)</t>
+  </si>
+  <si>
+    <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.1.11.20275</t>
+  </si>
+  <si>
+    <t>Location.type:FacilityTypeCodeValueSet</t>
+  </si>
+  <si>
+    <t>FacilityTypeCodeValueSet</t>
+  </si>
+  <si>
+    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜, Meets the USCDI applicable vocabulary standard (SNOMED-CT)</t>
+  </si>
+  <si>
+    <t>Meets the USCDI applicable vocabulary standard (SNOMED-CT)</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/c80-facilitycodes</t>
+  </si>
+  <si>
+    <t>Location.type:PlaceOfService</t>
+  </si>
+  <si>
+    <t>PlaceOfService</t>
+  </si>
+  <si>
+    <t>Meets the Health Insurance Portability and Accountability Act of 1996 (HIPAA) (POS Memorandum 2003)</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-HealthcareServiceLocation</t>
+  </si>
+  <si>
+    <t>Location.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
+</t>
+  </si>
+  <si>
+    <t>Contact details of the location</t>
+  </si>
+  <si>
+    <t>The contact details of communication devices available at the location. This can include phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
+  </si>
+  <si>
+    <t>.telecom</t>
+  </si>
+  <si>
+    <t>Location.address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address
+</t>
+  </si>
+  <si>
+    <t>Physical location</t>
+  </si>
+  <si>
+    <t>Physical location.</t>
+  </si>
+  <si>
+    <t>Additional addresses should be recorded using another instance of the Location resource, or via the Organization.</t>
+  </si>
+  <si>
+    <t>If locations can be visited, we need to keep track of their address.</t>
+  </si>
+  <si>
+    <t>.addr</t>
+  </si>
+  <si>
+    <t>Location.address.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -639,7 +728,7 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>Location.type.extension</t>
+    <t>Location.address.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -653,348 +742,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Location.type.coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Location.type.coding.id</t>
-  </si>
-  <si>
-    <t>Location.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Location.type.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>Location.type.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Location.type.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>Location.type.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Location.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Location.type.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Location.type:ServiceDeliveryLocationRoleType</t>
-  </si>
-  <si>
-    <t>ServiceDeliveryLocationRoleType</t>
-  </si>
-  <si>
-    <t>Extensible binding inherited from FHIR R4 `Location.type`</t>
-  </si>
-  <si>
-    <t>Location.type:ServiceDeliveryLocationRoleType.id</t>
-  </si>
-  <si>
-    <t>Location.type:ServiceDeliveryLocationRoleType.extension</t>
-  </si>
-  <si>
-    <t>Location.type:ServiceDeliveryLocationRoleType.coding</t>
-  </si>
-  <si>
-    <t>Location.type:ServiceDeliveryLocationRoleType.coding.id</t>
-  </si>
-  <si>
-    <t>Location.type:ServiceDeliveryLocationRoleType.coding.extension</t>
-  </si>
-  <si>
-    <t>Location.type:ServiceDeliveryLocationRoleType.coding.system</t>
-  </si>
-  <si>
-    <t>Location.type:ServiceDeliveryLocationRoleType.coding.version</t>
-  </si>
-  <si>
-    <t>Location.type:ServiceDeliveryLocationRoleType.coding.code</t>
-  </si>
-  <si>
-    <t>Location.type:ServiceDeliveryLocationRoleType.coding.display</t>
-  </si>
-  <si>
-    <t>Location.type:ServiceDeliveryLocationRoleType.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Location.type:ServiceDeliveryLocationRoleType.text</t>
-  </si>
-  <si>
-    <t>Location.type:HealthcareServiceLocation</t>
-  </si>
-  <si>
-    <t>HealthcareServiceLocation</t>
-  </si>
-  <si>
-    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜 ,  Meets the USCDI applicable vocabulary standard (HSLOC)</t>
-  </si>
-  <si>
-    <t>Meets the USCDI applicable vocabulary standard (HSLOC)</t>
-  </si>
-  <si>
-    <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113883.1.11.20275</t>
-  </si>
-  <si>
-    <t>Location.type:HealthcareServiceLocation.id</t>
-  </si>
-  <si>
-    <t>Location.type:HealthcareServiceLocation.extension</t>
-  </si>
-  <si>
-    <t>Location.type:HealthcareServiceLocation.coding</t>
-  </si>
-  <si>
-    <t>Location.type:HealthcareServiceLocation.coding.id</t>
-  </si>
-  <si>
-    <t>Location.type:HealthcareServiceLocation.coding.extension</t>
-  </si>
-  <si>
-    <t>Location.type:HealthcareServiceLocation.coding.system</t>
-  </si>
-  <si>
-    <t>Location.type:HealthcareServiceLocation.coding.version</t>
-  </si>
-  <si>
-    <t>Location.type:HealthcareServiceLocation.coding.code</t>
-  </si>
-  <si>
-    <t>Location.type:HealthcareServiceLocation.coding.display</t>
-  </si>
-  <si>
-    <t>Location.type:HealthcareServiceLocation.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Location.type:HealthcareServiceLocation.text</t>
-  </si>
-  <si>
-    <t>Location.type:FacilityTypeCodeValueSet</t>
-  </si>
-  <si>
-    <t>FacilityTypeCodeValueSet</t>
-  </si>
-  <si>
-    <t>𝗔𝗗𝗗𝗜𝗧𝗜𝗢𝗡𝗔𝗟 𝗨𝗦𝗖𝗗𝗜, Meets the USCDI applicable vocabulary standard (SNOMED-CT)</t>
-  </si>
-  <si>
-    <t>Meets the USCDI applicable vocabulary standard (SNOMED-CT)</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-facilitycodes</t>
-  </si>
-  <si>
-    <t>Location.type:FacilityTypeCodeValueSet.id</t>
-  </si>
-  <si>
-    <t>Location.type:FacilityTypeCodeValueSet.extension</t>
-  </si>
-  <si>
-    <t>Location.type:FacilityTypeCodeValueSet.coding</t>
-  </si>
-  <si>
-    <t>Location.type:FacilityTypeCodeValueSet.coding.id</t>
-  </si>
-  <si>
-    <t>Location.type:FacilityTypeCodeValueSet.coding.extension</t>
-  </si>
-  <si>
-    <t>Location.type:FacilityTypeCodeValueSet.coding.system</t>
-  </si>
-  <si>
-    <t>Location.type:FacilityTypeCodeValueSet.coding.version</t>
-  </si>
-  <si>
-    <t>Location.type:FacilityTypeCodeValueSet.coding.code</t>
-  </si>
-  <si>
-    <t>Location.type:FacilityTypeCodeValueSet.coding.display</t>
-  </si>
-  <si>
-    <t>Location.type:FacilityTypeCodeValueSet.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Location.type:FacilityTypeCodeValueSet.text</t>
-  </si>
-  <si>
-    <t>Location.type:PlaceOfService</t>
-  </si>
-  <si>
-    <t>PlaceOfService</t>
-  </si>
-  <si>
-    <t>Meets the Health Insurance Portability and Accountability Act of 1996 (HIPAA) (POS Memorandum 2003)</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-HealthcareServiceLocation</t>
-  </si>
-  <si>
-    <t>Location.telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint
-</t>
-  </si>
-  <si>
-    <t>Contact details of the location</t>
-  </si>
-  <si>
-    <t>The contact details of communication devices available at the location. This can include phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
-  </si>
-  <si>
-    <t>.telecom</t>
-  </si>
-  <si>
-    <t>Location.address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address
-</t>
-  </si>
-  <si>
-    <t>Physical location</t>
-  </si>
-  <si>
-    <t>Physical location.</t>
-  </si>
-  <si>
-    <t>Additional addresses should be recorded using another instance of the Location resource, or via the Organization.</t>
-  </si>
-  <si>
-    <t>If locations can be visited, we need to keep track of their address.</t>
-  </si>
-  <si>
-    <t>.addr</t>
-  </si>
-  <si>
-    <t>Location.address.id</t>
-  </si>
-  <si>
-    <t>Location.address.extension</t>
   </si>
   <si>
     <t>Location.address.use</t>
@@ -1418,6 +1165,10 @@
   </si>
   <si>
     <t>Location.hoursOfOperation.allDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
   </si>
   <si>
     <t>The Location is open all day</t>
@@ -1792,7 +1543,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL100"/>
+  <dimension ref="A1:AL56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1801,7 +1552,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="64.06640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.98046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="31.74609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -3695,7 +3446,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>77</v>
@@ -3791,9 +3542,11 @@
         <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>75</v>
       </c>
@@ -3802,28 +3555,30 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>75</v>
       </c>
@@ -3847,13 +3602,11 @@
         <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>75</v>
@@ -3871,37 +3624,39 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>75</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C20" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="B20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3917,21 +3672,21 @@
         <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>75</v>
       </c>
@@ -3955,31 +3710,29 @@
         <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3991,35 +3744,37 @@
         <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>75</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C21" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="B21" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>75</v>
@@ -4028,19 +3783,17 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>206</v>
       </c>
       <c r="M21" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>75</v>
@@ -4065,13 +3818,11 @@
         <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>75</v>
@@ -4089,7 +3840,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -4104,20 +3855,22 @@
         <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>75</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>75</v>
       </c>
@@ -4126,7 +3879,7 @@
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>75</v>
@@ -4135,19 +3888,21 @@
         <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>75</v>
       </c>
@@ -4171,13 +3926,11 @@
         <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>75</v>
+        <v>212</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>75</v>
@@ -4195,25 +3948,25 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>75</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" hidden="true">
@@ -4225,7 +3978,7 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4235,7 +3988,7 @@
         <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>75</v>
@@ -4244,17 +3997,15 @@
         <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>131</v>
+        <v>215</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>75</v>
@@ -4291,19 +4042,19 @@
         <v>75</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4315,10 +4066,10 @@
         <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>75</v>
@@ -4326,10 +4077,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4337,7 +4088,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>84</v>
@@ -4349,22 +4100,22 @@
         <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>75</v>
@@ -4413,7 +4164,7 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -4428,7 +4179,7 @@
         <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>75</v>
@@ -4436,10 +4187,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4459,20 +4210,18 @@
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>164</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>75</v>
@@ -4521,7 +4270,7 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -4533,10 +4282,10 @@
         <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>75</v>
@@ -4544,44 +4293,44 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
         <v>230</v>
       </c>
+      <c r="N26" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>75</v>
       </c>
@@ -4617,34 +4366,34 @@
         <v>75</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>75</v>
+        <v>231</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>75</v>
+        <v>232</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>232</v>
+        <v>162</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>75</v>
@@ -4652,10 +4401,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4672,23 +4421,25 @@
         <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O27" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4701,7 +4452,7 @@
         <v>75</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>75</v>
@@ -4713,13 +4464,13 @@
         <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>75</v>
@@ -4737,7 +4488,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4752,7 +4503,7 @@
         <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>75</v>
@@ -4760,10 +4511,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4786,20 +4537,18 @@
         <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>240</v>
+        <v>104</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>75</v>
       </c>
@@ -4811,7 +4560,7 @@
         <v>75</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>75</v>
+        <v>248</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>75</v>
@@ -4823,13 +4572,13 @@
         <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>75</v>
@@ -4847,7 +4596,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4862,7 +4611,7 @@
         <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>75</v>
@@ -4870,10 +4619,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4899,16 +4648,16 @@
         <v>164</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>75</v>
@@ -4921,7 +4670,7 @@
         <v>75</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>75</v>
+        <v>257</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>75</v>
@@ -4957,7 +4706,7 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4972,7 +4721,7 @@
         <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>75</v>
@@ -4980,14 +4729,12 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
         <v>75</v>
       </c>
@@ -5008,18 +4755,16 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>256</v>
-      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>75</v>
       </c>
@@ -5031,7 +4776,7 @@
         <v>75</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>75</v>
@@ -5043,11 +4788,13 @@
         <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Y30" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z30" t="s" s="2">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>75</v>
@@ -5065,7 +4812,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>187</v>
+        <v>264</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -5080,22 +4827,22 @@
         <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>195</v>
+        <v>265</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>186</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>75</v>
+        <v>267</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5105,22 +4852,22 @@
         <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>164</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>197</v>
+        <v>268</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>198</v>
+        <v>269</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5135,7 +4882,7 @@
         <v>75</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>75</v>
@@ -5171,7 +4918,7 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>199</v>
+        <v>271</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -5183,10 +4930,10 @@
         <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>162</v>
+        <v>272</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
@@ -5194,21 +4941,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>129</v>
+        <v>274</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
@@ -5217,19 +4964,19 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>131</v>
+        <v>275</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>201</v>
+        <v>276</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>133</v>
+        <v>277</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5243,7 +4990,7 @@
         <v>75</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>75</v>
+        <v>278</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>75</v>
@@ -5267,34 +5014,34 @@
         <v>75</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>204</v>
+        <v>279</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>162</v>
+        <v>280</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
@@ -5302,21 +5049,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>205</v>
+        <v>281</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>75</v>
+        <v>282</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>85</v>
@@ -5328,20 +5075,16 @@
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>206</v>
+        <v>283</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>75</v>
       </c>
@@ -5353,7 +5096,7 @@
         <v>75</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>75</v>
@@ -5365,13 +5108,13 @@
         <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>75</v>
+        <v>191</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>75</v>
+        <v>286</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>75</v>
+        <v>287</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>75</v>
@@ -5389,13 +5132,13 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>210</v>
+        <v>288</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>75</v>
@@ -5404,7 +5147,7 @@
         <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>75</v>
@@ -5412,14 +5155,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>75</v>
+        <v>291</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5429,22 +5172,22 @@
         <v>84</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>164</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>197</v>
+        <v>292</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>198</v>
+        <v>293</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5459,7 +5202,7 @@
         <v>75</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>75</v>
+        <v>294</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>75</v>
@@ -5495,7 +5238,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>199</v>
+        <v>295</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5507,10 +5250,10 @@
         <v>75</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>162</v>
+        <v>296</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>75</v>
@@ -5518,21 +5261,21 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>213</v>
+        <v>297</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -5541,19 +5284,19 @@
         <v>75</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>131</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>201</v>
+        <v>299</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>133</v>
+        <v>300</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5591,34 +5334,34 @@
         <v>75</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>204</v>
+        <v>301</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>162</v>
+        <v>302</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>75</v>
@@ -5626,10 +5369,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5637,13 +5380,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>75</v>
@@ -5652,19 +5395,17 @@
         <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>98</v>
+        <v>304</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>218</v>
+        <v>307</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>75</v>
@@ -5677,7 +5418,7 @@
         <v>75</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>75</v>
+        <v>308</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>75</v>
@@ -5713,7 +5454,7 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>219</v>
+        <v>309</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5728,7 +5469,7 @@
         <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
@@ -5736,10 +5477,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>221</v>
+        <v>311</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5762,18 +5503,18 @@
         <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>222</v>
+        <v>312</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>75</v>
       </c>
@@ -5797,13 +5538,13 @@
         <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>75</v>
+        <v>315</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>75</v>
+        <v>316</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>75</v>
+        <v>317</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>75</v>
@@ -5821,7 +5562,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>225</v>
+        <v>311</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5836,18 +5577,18 @@
         <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>226</v>
+        <v>318</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>75</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>227</v>
+        <v>319</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5855,32 +5596,32 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>104</v>
+        <v>320</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>228</v>
+        <v>321</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>229</v>
+        <v>322</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>230</v>
+        <v>323</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>75</v>
@@ -5929,7 +5670,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>231</v>
+        <v>319</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -5944,7 +5685,7 @@
         <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>232</v>
+        <v>324</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>75</v>
@@ -5952,10 +5693,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>233</v>
+        <v>325</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5975,21 +5716,19 @@
         <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>164</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>75</v>
       </c>
@@ -6037,7 +5776,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6049,10 +5788,10 @@
         <v>75</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>238</v>
+        <v>162</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>75</v>
@@ -6060,21 +5799,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>266</v>
+        <v>326</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>239</v>
+        <v>326</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>75</v>
@@ -6083,23 +5822,21 @@
         <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>241</v>
+        <v>131</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>75</v>
       </c>
@@ -6147,22 +5884,22 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>246</v>
+        <v>162</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>
@@ -6170,45 +5907,45 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>267</v>
+        <v>327</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>247</v>
+        <v>327</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>75</v>
+        <v>328</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>248</v>
+        <v>329</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>249</v>
+        <v>330</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>251</v>
+        <v>139</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>75</v>
@@ -6257,22 +5994,22 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>252</v>
+        <v>331</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>253</v>
+        <v>127</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -6280,23 +6017,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>268</v>
+        <v>332</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>75</v>
@@ -6305,21 +6040,19 @@
         <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>188</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>270</v>
+        <v>334</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>190</v>
+        <v>335</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>271</v>
-      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>75</v>
       </c>
@@ -6343,11 +6076,13 @@
         <v>75</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Y42" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z42" t="s" s="2">
-        <v>272</v>
+        <v>75</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>75</v>
@@ -6365,13 +6100,13 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>187</v>
+        <v>332</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>75</v>
@@ -6380,18 +6115,18 @@
         <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>195</v>
+        <v>336</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>186</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>196</v>
+        <v>337</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6399,7 +6134,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>84</v>
@@ -6414,13 +6149,13 @@
         <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>164</v>
+        <v>333</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>197</v>
+        <v>338</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>198</v>
+        <v>339</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6471,10 +6206,10 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>199</v>
+        <v>337</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>84</v>
@@ -6483,10 +6218,10 @@
         <v>75</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>162</v>
+        <v>336</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>75</v>
@@ -6494,21 +6229,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>274</v>
+        <v>340</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
@@ -6520,17 +6255,15 @@
         <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>130</v>
+        <v>333</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>131</v>
+        <v>341</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>75</v>
@@ -6567,34 +6300,34 @@
         <v>75</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>204</v>
+        <v>340</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>162</v>
+        <v>336</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>75</v>
@@ -6602,10 +6335,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>275</v>
+        <v>343</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>205</v>
+        <v>343</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6613,10 +6346,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G45" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>85</v>
@@ -6628,19 +6361,19 @@
         <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>157</v>
+        <v>344</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>206</v>
+        <v>345</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>207</v>
+        <v>346</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>209</v>
+        <v>348</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>75</v>
@@ -6689,13 +6422,13 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>210</v>
+        <v>343</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>75</v>
@@ -6704,7 +6437,7 @@
         <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>211</v>
+        <v>349</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>75</v>
@@ -6712,10 +6445,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>276</v>
+        <v>350</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>212</v>
+        <v>350</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6738,16 +6471,18 @@
         <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>164</v>
+        <v>351</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>197</v>
+        <v>352</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>198</v>
+        <v>353</v>
       </c>
       <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>75</v>
       </c>
@@ -6795,7 +6530,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>199</v>
+        <v>350</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6807,10 +6542,10 @@
         <v>75</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>162</v>
+        <v>355</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>75</v>
@@ -6818,14 +6553,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>277</v>
+        <v>356</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>213</v>
+        <v>356</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6844,16 +6579,16 @@
         <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>130</v>
+        <v>320</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>131</v>
+        <v>357</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>201</v>
+        <v>358</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>133</v>
+        <v>359</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6891,19 +6626,19 @@
         <v>75</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>204</v>
+        <v>356</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6915,10 +6650,10 @@
         <v>75</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>162</v>
+        <v>360</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>75</v>
@@ -6926,10 +6661,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>214</v>
+        <v>361</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6937,35 +6672,31 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>84</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>75</v>
       </c>
@@ -7013,7 +6744,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7025,10 +6756,10 @@
         <v>75</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>220</v>
+        <v>162</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>75</v>
@@ -7036,21 +6767,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>279</v>
+        <v>362</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>221</v>
+        <v>362</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>75</v>
@@ -7059,19 +6790,19 @@
         <v>75</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7121,22 +6852,22 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>75</v>
@@ -7144,43 +6875,45 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>280</v>
+        <v>363</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>227</v>
+        <v>363</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>75</v>
+        <v>328</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>228</v>
+        <v>329</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O50" t="s" s="2">
-        <v>230</v>
+        <v>139</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>75</v>
@@ -7229,22 +6962,22 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>231</v>
+        <v>331</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>232</v>
+        <v>127</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>75</v>
@@ -7252,10 +6985,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>281</v>
+        <v>364</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>233</v>
+        <v>364</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7266,7 +6999,7 @@
         <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>75</v>
@@ -7275,21 +7008,19 @@
         <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>234</v>
+        <v>365</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>235</v>
+        <v>366</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>75</v>
       </c>
@@ -7313,13 +7044,13 @@
         <v>75</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>75</v>
+        <v>367</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>75</v>
+        <v>368</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>75</v>
@@ -7337,13 +7068,13 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>237</v>
+        <v>364</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>75</v>
@@ -7352,7 +7083,7 @@
         <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>238</v>
+        <v>360</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>75</v>
@@ -7360,10 +7091,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>282</v>
+        <v>369</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>239</v>
+        <v>369</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7383,23 +7114,19 @@
         <v>75</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>240</v>
+        <v>370</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>241</v>
+        <v>371</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>75</v>
       </c>
@@ -7447,7 +7174,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>245</v>
+        <v>369</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7462,7 +7189,7 @@
         <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>246</v>
+        <v>360</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>75</v>
@@ -7470,10 +7197,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>283</v>
+        <v>373</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>247</v>
+        <v>373</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7493,23 +7220,19 @@
         <v>75</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>164</v>
+        <v>374</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>248</v>
+        <v>375</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>75</v>
       </c>
@@ -7557,7 +7280,7 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>252</v>
+        <v>373</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7572,7 +7295,7 @@
         <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>253</v>
+        <v>360</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>75</v>
@@ -7580,14 +7303,12 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>284</v>
+        <v>377</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
         <v>75</v>
       </c>
@@ -7596,7 +7317,7 @@
         <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>75</v>
@@ -7605,21 +7326,19 @@
         <v>75</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>188</v>
+        <v>374</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>286</v>
+        <v>378</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>190</v>
+        <v>379</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>287</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>75</v>
       </c>
@@ -7643,11 +7362,13 @@
         <v>75</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Y54" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z54" t="s" s="2">
-        <v>288</v>
+        <v>75</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>75</v>
@@ -7665,13 +7386,13 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>187</v>
+        <v>377</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>75</v>
@@ -7680,18 +7401,18 @@
         <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>195</v>
+        <v>360</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>186</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>289</v>
+        <v>380</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>196</v>
+        <v>380</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7717,10 +7438,10 @@
         <v>164</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>197</v>
+        <v>381</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>198</v>
+        <v>382</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7771,7 +7492,7 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>199</v>
+        <v>380</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -7783,7 +7504,7 @@
         <v>75</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>162</v>
@@ -7794,14 +7515,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>290</v>
+        <v>383</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>200</v>
+        <v>383</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -7820,18 +7541,18 @@
         <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>130</v>
+        <v>384</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>131</v>
+        <v>385</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>75</v>
       </c>
@@ -7867,19 +7588,19 @@
         <v>75</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>204</v>
+        <v>383</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -7891,7 +7612,7 @@
         <v>75</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>162</v>
@@ -7900,4746 +7621,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="P57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O59" s="2"/>
-      <c r="P59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="P60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O61" s="2"/>
-      <c r="P61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="P62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="P63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="P64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="P65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="D66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="P66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Y66" s="2"/>
-      <c r="Z66" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="P68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="P71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="P73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="P80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="P81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="P82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="P85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="P89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="P90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="O91" s="2"/>
-      <c r="P91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-      <c r="P92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O93" s="2"/>
-      <c r="P93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="P94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q94" s="2"/>
-      <c r="R94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q95" s="2"/>
-      <c r="R95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="R98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="P100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q100" s="2"/>
-      <c r="R100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AL100">
+  <autoFilter ref="A1:AL56">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12649,7 +7632,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI99">
+  <conditionalFormatting sqref="A2:AI55">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-us-core-location-sliced.xlsx
+++ b/StructureDefinition-us-core-location-sliced.xlsx
@@ -1552,17 +1552,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.98046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="31.74609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.43359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.84765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="27.21484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.5234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="62.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1571,24 +1571,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.6796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="38.31640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="72.59765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.84765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="68.15625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="58.43359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
